--- a/output/my_cards.xlsx
+++ b/output/my_cards.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17140" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -412,10 +412,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:E522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="F345" sqref="F345"/>
+    <sheetView tabSelected="1" topLeftCell="A390" workbookViewId="0">
+      <selection activeCell="H350" sqref="H350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -9377,22 +9377,22 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Togepi</t>
+          <t>Teal Mask Ogerpon</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>OBF</t>
+          <t>TWM</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>083/197</t>
+          <t>024/167</t>
         </is>
       </c>
     </row>
@@ -9404,22 +9404,22 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Togepi</t>
+          <t>Teal Mask Ogerpon</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>OBF</t>
+          <t>TWM</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>083/197</t>
+          <t>024/167</t>
         </is>
       </c>
     </row>
@@ -9431,22 +9431,22 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Togepi</t>
+          <t>Mow Rotom</t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>OBF</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>083/197</t>
+          <t>008/142</t>
         </is>
       </c>
     </row>
@@ -9458,22 +9458,22 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Togepi</t>
+          <t>Applin</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>OBF</t>
+          <t>SCR</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>083/197</t>
+          <t>012/142</t>
         </is>
       </c>
     </row>
@@ -9485,22 +9485,4977 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Psychic</t>
+          <t>Grass</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Solrock</t>
+          <t>Applin</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>009/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Applin</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>009/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Poltchageist</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>021/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Bramblin</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>020/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Bramblin</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>020/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Bounsweet</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>008/182</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Bounsweet</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>008/182</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Bounsweet</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
           <t>OBF</t>
         </is>
       </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>093/197</t>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>016/197</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Grookey</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>014/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Rowlet</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>003/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Pineco</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>002/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Pineco</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>002/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Pineco</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>002/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Galvantula</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>002/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Rabsca</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>024/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Rabsca</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>024/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Brambleghast</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>021/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Brambleghast</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>021/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Brambleghast</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>021/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Brambleghast</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>021/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Brambleghast</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>021/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Brambleghast</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>021/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Dipplin</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>018/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Dipplin</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>010/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Dipplin</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>010/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Sinistcha</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>022/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Dartrix</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>004/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Dartrix</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>004/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Dartrix</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>004/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Grass</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Dartrix</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>004/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Fire</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Infernape</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>033/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Horsea</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>010/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Feraligatr</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>041/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Feraligatr</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>041/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Feraligatr</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>041/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Feraligatr</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>041/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Feraligatr</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>041/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>060/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>060/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>060/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>060/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>060/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>060/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>060/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>060/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>060/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Baxcalibur</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>060/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>060/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>060/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>060/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>060/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>060/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>060/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>060/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>060/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>OBF</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>062/197</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Palafin</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>OBF</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>062/197</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Glalie</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>052/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Glalie</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>052/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Drednaw</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>044/142</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Froslass</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>053/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Froslass</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>053/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Froslass</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>053/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Froslass</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>053/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Froslass</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>053/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Froslass</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>053/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Froslass</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>053/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Froslass</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>053/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Froslass</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>053/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Drednaw</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>044/142</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Veluza</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>045/142</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Veluza</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>045/142</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Dondozo</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>061/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Dondozo</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>061/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Dondozo</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>061/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Tatsugiri</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>062/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Tatsugiri</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>062/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Tatsugiri</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>062/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Tatsugiri</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>062/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Tatsugiri</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>062/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Tatsugiri</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>062/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Tatsugiri</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>062/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Quaxly</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>052/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Quaxly</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>052/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Pokemon</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Quaxly</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>052/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Jet Energy</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>190/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Youngster</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>198/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Youngster</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>198/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Youngster</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>198/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Youngster</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>198/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Iris's Fighting Spirit</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>JTG</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>149/159</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Technical Machine: Evolution</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>178/182</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Antique Cover Fossil</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>129/142</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Mist Energy</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>161/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Luxurious Cape</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>166/182</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Binding Mochi</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>055/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Exp. Share</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>174/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Team Star Grunt</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>195/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Team Star Grunt</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>195/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>Friends in Paldea</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>109/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Raifort</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>161/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Raifort</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>161/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Lucian</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>157/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Raifort</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>161/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Lucian</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>157/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Lacey</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>139/142</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Raifort</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>161/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Youngster</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>198/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Youngster</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>198/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Potion</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>188/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Youngster</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>198/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Electric Generator</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>170/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Electric Generator</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>170/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Miriam</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>179/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Glass Trumpet</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>135/142</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Techno Radar</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>180/182</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Professor Turo's Scenario</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>171/182</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Powerglass</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>063/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>Powerglass</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>063/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>Powerglass</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>063/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>Techno Radar</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>180/182</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Morty's Conviction</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>155/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Bug Catching Set</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>143/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Reversal Energy</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>192/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Explorer's Guidance</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>147/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Bug Catching Set</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>143/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Electric Generator</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>170/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Techno Radar</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>180/182</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Lana's Aid</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>155/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Jet Energy</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>190/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Reversal Energy</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>192/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Reversal Energy</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>192/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>Jet Energy</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>PAL</t>
+        </is>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>190/193</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>Techno Radar</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>180/182</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Explorer's Guidance</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>147/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Lana's Aid</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>TWM</t>
+        </is>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>155/167</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Electric Generator</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>170/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Morty's Conviction</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>155/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Explorer's Guidance</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>147/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Occa Berry</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>SCR</t>
+        </is>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>140/142</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Miriam</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>179/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Katy</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>SVI</t>
+        </is>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>177/198</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Heavy Baton</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>151/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Morty's Conviction</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>155/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Salvatore</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>160/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Energy</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>Mist Energy</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>161/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>Powerglass</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>SFA</t>
+        </is>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>063/064</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Morty's Conviction</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>155/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Heavy Baton</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>151/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Bug Catching Set</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>102/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Bug Catching Set</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>102/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Bug Catching Set</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>102/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Bug Catching Set</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>102/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Black Belt's Training</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>098/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Kieran</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>113/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Techno Radar</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>130/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Black Belt's Training</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>097/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Amarys</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>093/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Black Belt's Training</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>099/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>Black Belt's Training</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>099/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Black Belt's Training</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>099/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Lacey</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>114/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Janine's Secret Art</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>112/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Janine's Secret Art</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>112/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Bug Catching Set</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>102/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Bug Catching Set</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>102/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Glass Trumpet</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>110/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Binding Mochi</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>095/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>Stadium</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Festival Grounds</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>108/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Techno Radar</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>130/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Billy &amp; O'Nare</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>JTG</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>142/159</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Glass Trumpet</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>110/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Bug Catching Set</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>102/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Lacey</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>114/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Lacey</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>114/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>Stadium</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Perilous Jungle</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>156/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Techno Radar</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>130/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Techno Radar</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>130/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>Janine's Secret Art</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>112/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>Tool</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Binding Mochi</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>095/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Bug Catching Set</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>102/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Janine's Secret Art</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>112/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Kieran</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>PRE</t>
+        </is>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>113/131</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Morty's Conviction</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>TEF</t>
+        </is>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>155/162</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>Mela</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>PAR</t>
+        </is>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>167/182</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>Supporter</t>
+        </is>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Paldean Student</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>PAF</t>
+        </is>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>085/091</t>
         </is>
       </c>
     </row>
